--- a/CashFlow/YUM_cashflow.xlsx
+++ b/CashFlow/YUM_cashflow.xlsx
@@ -921,19 +921,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3284000000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3151000000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2996000000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1971000000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>942000000.0</v>
+        <v>-37000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-36000000.0</v>
